--- a/all_stats.xlsx
+++ b/all_stats.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry Tian\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry Tian\Desktop\evaluating-human-rationales_harry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D350D9DF-BE32-4257-BDF4-59FC8C09C4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06DDABB-22D2-4EDA-8B5E-D15154C5457D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18480" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18470" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="19">
   <si>
     <t>dataset</t>
   </si>
@@ -483,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B35" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -1224,4 +1225,287 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0FB673-CAB3-4516-B132-9E87137E643C}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="27.5" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="2" width="15.58203125" style="2" customWidth="1"/>
+    <col min="3" max="9" width="15.58203125" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.313</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.153</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="G5" s="5">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.623</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.85699999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.754</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.436</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.748</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>